--- a/service-system/src/main/resources/static/沥青路面压实度.xlsx
+++ b/service-system/src/main/resources/static/沥青路面压实度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6993AE50-A847-4CEA-BDEE-522F4DEE6F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F64398-A2F8-4B27-942E-8A531D028B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="913" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="913" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保证率系数" sheetId="11" state="hidden" r:id="rId1"/>
@@ -1413,454 +1413,454 @@
       <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.1328125" style="23" customWidth="1"/>
+    <col min="1" max="4" width="16.125" style="23" customWidth="1"/>
     <col min="5" max="248" width="9" style="23"/>
-    <col min="249" max="249" width="6.59765625" style="23" customWidth="1"/>
-    <col min="250" max="252" width="7.59765625" style="23" customWidth="1"/>
-    <col min="253" max="253" width="6.59765625" style="23" customWidth="1"/>
-    <col min="254" max="256" width="7.59765625" style="23" customWidth="1"/>
-    <col min="257" max="257" width="6.59765625" style="23" customWidth="1"/>
-    <col min="258" max="260" width="7.59765625" style="23" customWidth="1"/>
+    <col min="249" max="249" width="6.625" style="23" customWidth="1"/>
+    <col min="250" max="252" width="7.625" style="23" customWidth="1"/>
+    <col min="253" max="253" width="6.625" style="23" customWidth="1"/>
+    <col min="254" max="256" width="7.625" style="23" customWidth="1"/>
+    <col min="257" max="257" width="6.625" style="23" customWidth="1"/>
+    <col min="258" max="260" width="7.625" style="23" customWidth="1"/>
     <col min="261" max="504" width="9" style="23"/>
-    <col min="505" max="505" width="6.59765625" style="23" customWidth="1"/>
-    <col min="506" max="508" width="7.59765625" style="23" customWidth="1"/>
-    <col min="509" max="509" width="6.59765625" style="23" customWidth="1"/>
-    <col min="510" max="512" width="7.59765625" style="23" customWidth="1"/>
-    <col min="513" max="513" width="6.59765625" style="23" customWidth="1"/>
-    <col min="514" max="516" width="7.59765625" style="23" customWidth="1"/>
+    <col min="505" max="505" width="6.625" style="23" customWidth="1"/>
+    <col min="506" max="508" width="7.625" style="23" customWidth="1"/>
+    <col min="509" max="509" width="6.625" style="23" customWidth="1"/>
+    <col min="510" max="512" width="7.625" style="23" customWidth="1"/>
+    <col min="513" max="513" width="6.625" style="23" customWidth="1"/>
+    <col min="514" max="516" width="7.625" style="23" customWidth="1"/>
     <col min="517" max="760" width="9" style="23"/>
-    <col min="761" max="761" width="6.59765625" style="23" customWidth="1"/>
-    <col min="762" max="764" width="7.59765625" style="23" customWidth="1"/>
-    <col min="765" max="765" width="6.59765625" style="23" customWidth="1"/>
-    <col min="766" max="768" width="7.59765625" style="23" customWidth="1"/>
-    <col min="769" max="769" width="6.59765625" style="23" customWidth="1"/>
-    <col min="770" max="772" width="7.59765625" style="23" customWidth="1"/>
+    <col min="761" max="761" width="6.625" style="23" customWidth="1"/>
+    <col min="762" max="764" width="7.625" style="23" customWidth="1"/>
+    <col min="765" max="765" width="6.625" style="23" customWidth="1"/>
+    <col min="766" max="768" width="7.625" style="23" customWidth="1"/>
+    <col min="769" max="769" width="6.625" style="23" customWidth="1"/>
+    <col min="770" max="772" width="7.625" style="23" customWidth="1"/>
     <col min="773" max="1016" width="9" style="23"/>
-    <col min="1017" max="1017" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1018" max="1020" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1021" max="1021" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1022" max="1024" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1025" max="1025" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1026" max="1028" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1017" max="1017" width="6.625" style="23" customWidth="1"/>
+    <col min="1018" max="1020" width="7.625" style="23" customWidth="1"/>
+    <col min="1021" max="1021" width="6.625" style="23" customWidth="1"/>
+    <col min="1022" max="1024" width="7.625" style="23" customWidth="1"/>
+    <col min="1025" max="1025" width="6.625" style="23" customWidth="1"/>
+    <col min="1026" max="1028" width="7.625" style="23" customWidth="1"/>
     <col min="1029" max="1272" width="9" style="23"/>
-    <col min="1273" max="1273" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1274" max="1276" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1277" max="1277" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1278" max="1280" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1281" max="1281" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1282" max="1284" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1273" max="1273" width="6.625" style="23" customWidth="1"/>
+    <col min="1274" max="1276" width="7.625" style="23" customWidth="1"/>
+    <col min="1277" max="1277" width="6.625" style="23" customWidth="1"/>
+    <col min="1278" max="1280" width="7.625" style="23" customWidth="1"/>
+    <col min="1281" max="1281" width="6.625" style="23" customWidth="1"/>
+    <col min="1282" max="1284" width="7.625" style="23" customWidth="1"/>
     <col min="1285" max="1528" width="9" style="23"/>
-    <col min="1529" max="1529" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1530" max="1532" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1533" max="1533" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1534" max="1536" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1537" max="1537" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1538" max="1540" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1529" max="1529" width="6.625" style="23" customWidth="1"/>
+    <col min="1530" max="1532" width="7.625" style="23" customWidth="1"/>
+    <col min="1533" max="1533" width="6.625" style="23" customWidth="1"/>
+    <col min="1534" max="1536" width="7.625" style="23" customWidth="1"/>
+    <col min="1537" max="1537" width="6.625" style="23" customWidth="1"/>
+    <col min="1538" max="1540" width="7.625" style="23" customWidth="1"/>
     <col min="1541" max="1784" width="9" style="23"/>
-    <col min="1785" max="1785" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1786" max="1788" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1789" max="1789" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1790" max="1792" width="7.59765625" style="23" customWidth="1"/>
-    <col min="1793" max="1793" width="6.59765625" style="23" customWidth="1"/>
-    <col min="1794" max="1796" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1785" max="1785" width="6.625" style="23" customWidth="1"/>
+    <col min="1786" max="1788" width="7.625" style="23" customWidth="1"/>
+    <col min="1789" max="1789" width="6.625" style="23" customWidth="1"/>
+    <col min="1790" max="1792" width="7.625" style="23" customWidth="1"/>
+    <col min="1793" max="1793" width="6.625" style="23" customWidth="1"/>
+    <col min="1794" max="1796" width="7.625" style="23" customWidth="1"/>
     <col min="1797" max="2040" width="9" style="23"/>
-    <col min="2041" max="2041" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2042" max="2044" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2045" max="2045" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2046" max="2048" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2049" max="2049" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2050" max="2052" width="7.59765625" style="23" customWidth="1"/>
+    <col min="2041" max="2041" width="6.625" style="23" customWidth="1"/>
+    <col min="2042" max="2044" width="7.625" style="23" customWidth="1"/>
+    <col min="2045" max="2045" width="6.625" style="23" customWidth="1"/>
+    <col min="2046" max="2048" width="7.625" style="23" customWidth="1"/>
+    <col min="2049" max="2049" width="6.625" style="23" customWidth="1"/>
+    <col min="2050" max="2052" width="7.625" style="23" customWidth="1"/>
     <col min="2053" max="2296" width="9" style="23"/>
-    <col min="2297" max="2297" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2298" max="2300" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2301" max="2301" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2302" max="2304" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2305" max="2305" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2306" max="2308" width="7.59765625" style="23" customWidth="1"/>
+    <col min="2297" max="2297" width="6.625" style="23" customWidth="1"/>
+    <col min="2298" max="2300" width="7.625" style="23" customWidth="1"/>
+    <col min="2301" max="2301" width="6.625" style="23" customWidth="1"/>
+    <col min="2302" max="2304" width="7.625" style="23" customWidth="1"/>
+    <col min="2305" max="2305" width="6.625" style="23" customWidth="1"/>
+    <col min="2306" max="2308" width="7.625" style="23" customWidth="1"/>
     <col min="2309" max="2552" width="9" style="23"/>
-    <col min="2553" max="2553" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2554" max="2556" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2557" max="2557" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2558" max="2560" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2561" max="2561" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2562" max="2564" width="7.59765625" style="23" customWidth="1"/>
+    <col min="2553" max="2553" width="6.625" style="23" customWidth="1"/>
+    <col min="2554" max="2556" width="7.625" style="23" customWidth="1"/>
+    <col min="2557" max="2557" width="6.625" style="23" customWidth="1"/>
+    <col min="2558" max="2560" width="7.625" style="23" customWidth="1"/>
+    <col min="2561" max="2561" width="6.625" style="23" customWidth="1"/>
+    <col min="2562" max="2564" width="7.625" style="23" customWidth="1"/>
     <col min="2565" max="2808" width="9" style="23"/>
-    <col min="2809" max="2809" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2810" max="2812" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2813" max="2813" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2814" max="2816" width="7.59765625" style="23" customWidth="1"/>
-    <col min="2817" max="2817" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2818" max="2820" width="7.59765625" style="23" customWidth="1"/>
+    <col min="2809" max="2809" width="6.625" style="23" customWidth="1"/>
+    <col min="2810" max="2812" width="7.625" style="23" customWidth="1"/>
+    <col min="2813" max="2813" width="6.625" style="23" customWidth="1"/>
+    <col min="2814" max="2816" width="7.625" style="23" customWidth="1"/>
+    <col min="2817" max="2817" width="6.625" style="23" customWidth="1"/>
+    <col min="2818" max="2820" width="7.625" style="23" customWidth="1"/>
     <col min="2821" max="3064" width="9" style="23"/>
-    <col min="3065" max="3065" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3066" max="3068" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3069" max="3069" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3070" max="3072" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3073" max="3073" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3074" max="3076" width="7.59765625" style="23" customWidth="1"/>
+    <col min="3065" max="3065" width="6.625" style="23" customWidth="1"/>
+    <col min="3066" max="3068" width="7.625" style="23" customWidth="1"/>
+    <col min="3069" max="3069" width="6.625" style="23" customWidth="1"/>
+    <col min="3070" max="3072" width="7.625" style="23" customWidth="1"/>
+    <col min="3073" max="3073" width="6.625" style="23" customWidth="1"/>
+    <col min="3074" max="3076" width="7.625" style="23" customWidth="1"/>
     <col min="3077" max="3320" width="9" style="23"/>
-    <col min="3321" max="3321" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3322" max="3324" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3325" max="3325" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3326" max="3328" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3329" max="3329" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3330" max="3332" width="7.59765625" style="23" customWidth="1"/>
+    <col min="3321" max="3321" width="6.625" style="23" customWidth="1"/>
+    <col min="3322" max="3324" width="7.625" style="23" customWidth="1"/>
+    <col min="3325" max="3325" width="6.625" style="23" customWidth="1"/>
+    <col min="3326" max="3328" width="7.625" style="23" customWidth="1"/>
+    <col min="3329" max="3329" width="6.625" style="23" customWidth="1"/>
+    <col min="3330" max="3332" width="7.625" style="23" customWidth="1"/>
     <col min="3333" max="3576" width="9" style="23"/>
-    <col min="3577" max="3577" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3578" max="3580" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3581" max="3581" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3582" max="3584" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3585" max="3585" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3586" max="3588" width="7.59765625" style="23" customWidth="1"/>
+    <col min="3577" max="3577" width="6.625" style="23" customWidth="1"/>
+    <col min="3578" max="3580" width="7.625" style="23" customWidth="1"/>
+    <col min="3581" max="3581" width="6.625" style="23" customWidth="1"/>
+    <col min="3582" max="3584" width="7.625" style="23" customWidth="1"/>
+    <col min="3585" max="3585" width="6.625" style="23" customWidth="1"/>
+    <col min="3586" max="3588" width="7.625" style="23" customWidth="1"/>
     <col min="3589" max="3832" width="9" style="23"/>
-    <col min="3833" max="3833" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3834" max="3836" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3837" max="3837" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3838" max="3840" width="7.59765625" style="23" customWidth="1"/>
-    <col min="3841" max="3841" width="6.59765625" style="23" customWidth="1"/>
-    <col min="3842" max="3844" width="7.59765625" style="23" customWidth="1"/>
+    <col min="3833" max="3833" width="6.625" style="23" customWidth="1"/>
+    <col min="3834" max="3836" width="7.625" style="23" customWidth="1"/>
+    <col min="3837" max="3837" width="6.625" style="23" customWidth="1"/>
+    <col min="3838" max="3840" width="7.625" style="23" customWidth="1"/>
+    <col min="3841" max="3841" width="6.625" style="23" customWidth="1"/>
+    <col min="3842" max="3844" width="7.625" style="23" customWidth="1"/>
     <col min="3845" max="4088" width="9" style="23"/>
-    <col min="4089" max="4089" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4090" max="4092" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4093" max="4093" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4094" max="4096" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4097" max="4097" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4098" max="4100" width="7.59765625" style="23" customWidth="1"/>
+    <col min="4089" max="4089" width="6.625" style="23" customWidth="1"/>
+    <col min="4090" max="4092" width="7.625" style="23" customWidth="1"/>
+    <col min="4093" max="4093" width="6.625" style="23" customWidth="1"/>
+    <col min="4094" max="4096" width="7.625" style="23" customWidth="1"/>
+    <col min="4097" max="4097" width="6.625" style="23" customWidth="1"/>
+    <col min="4098" max="4100" width="7.625" style="23" customWidth="1"/>
     <col min="4101" max="4344" width="9" style="23"/>
-    <col min="4345" max="4345" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4346" max="4348" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4349" max="4349" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4350" max="4352" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4353" max="4353" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4354" max="4356" width="7.59765625" style="23" customWidth="1"/>
+    <col min="4345" max="4345" width="6.625" style="23" customWidth="1"/>
+    <col min="4346" max="4348" width="7.625" style="23" customWidth="1"/>
+    <col min="4349" max="4349" width="6.625" style="23" customWidth="1"/>
+    <col min="4350" max="4352" width="7.625" style="23" customWidth="1"/>
+    <col min="4353" max="4353" width="6.625" style="23" customWidth="1"/>
+    <col min="4354" max="4356" width="7.625" style="23" customWidth="1"/>
     <col min="4357" max="4600" width="9" style="23"/>
-    <col min="4601" max="4601" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4602" max="4604" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4605" max="4605" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4606" max="4608" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4609" max="4609" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4610" max="4612" width="7.59765625" style="23" customWidth="1"/>
+    <col min="4601" max="4601" width="6.625" style="23" customWidth="1"/>
+    <col min="4602" max="4604" width="7.625" style="23" customWidth="1"/>
+    <col min="4605" max="4605" width="6.625" style="23" customWidth="1"/>
+    <col min="4606" max="4608" width="7.625" style="23" customWidth="1"/>
+    <col min="4609" max="4609" width="6.625" style="23" customWidth="1"/>
+    <col min="4610" max="4612" width="7.625" style="23" customWidth="1"/>
     <col min="4613" max="4856" width="9" style="23"/>
-    <col min="4857" max="4857" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4858" max="4860" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4861" max="4861" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4862" max="4864" width="7.59765625" style="23" customWidth="1"/>
-    <col min="4865" max="4865" width="6.59765625" style="23" customWidth="1"/>
-    <col min="4866" max="4868" width="7.59765625" style="23" customWidth="1"/>
+    <col min="4857" max="4857" width="6.625" style="23" customWidth="1"/>
+    <col min="4858" max="4860" width="7.625" style="23" customWidth="1"/>
+    <col min="4861" max="4861" width="6.625" style="23" customWidth="1"/>
+    <col min="4862" max="4864" width="7.625" style="23" customWidth="1"/>
+    <col min="4865" max="4865" width="6.625" style="23" customWidth="1"/>
+    <col min="4866" max="4868" width="7.625" style="23" customWidth="1"/>
     <col min="4869" max="5112" width="9" style="23"/>
-    <col min="5113" max="5113" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5114" max="5116" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5117" max="5117" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5118" max="5120" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5121" max="5121" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5122" max="5124" width="7.59765625" style="23" customWidth="1"/>
+    <col min="5113" max="5113" width="6.625" style="23" customWidth="1"/>
+    <col min="5114" max="5116" width="7.625" style="23" customWidth="1"/>
+    <col min="5117" max="5117" width="6.625" style="23" customWidth="1"/>
+    <col min="5118" max="5120" width="7.625" style="23" customWidth="1"/>
+    <col min="5121" max="5121" width="6.625" style="23" customWidth="1"/>
+    <col min="5122" max="5124" width="7.625" style="23" customWidth="1"/>
     <col min="5125" max="5368" width="9" style="23"/>
-    <col min="5369" max="5369" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5370" max="5372" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5373" max="5373" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5374" max="5376" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5377" max="5377" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5378" max="5380" width="7.59765625" style="23" customWidth="1"/>
+    <col min="5369" max="5369" width="6.625" style="23" customWidth="1"/>
+    <col min="5370" max="5372" width="7.625" style="23" customWidth="1"/>
+    <col min="5373" max="5373" width="6.625" style="23" customWidth="1"/>
+    <col min="5374" max="5376" width="7.625" style="23" customWidth="1"/>
+    <col min="5377" max="5377" width="6.625" style="23" customWidth="1"/>
+    <col min="5378" max="5380" width="7.625" style="23" customWidth="1"/>
     <col min="5381" max="5624" width="9" style="23"/>
-    <col min="5625" max="5625" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5626" max="5628" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5629" max="5629" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5630" max="5632" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5633" max="5633" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5634" max="5636" width="7.59765625" style="23" customWidth="1"/>
+    <col min="5625" max="5625" width="6.625" style="23" customWidth="1"/>
+    <col min="5626" max="5628" width="7.625" style="23" customWidth="1"/>
+    <col min="5629" max="5629" width="6.625" style="23" customWidth="1"/>
+    <col min="5630" max="5632" width="7.625" style="23" customWidth="1"/>
+    <col min="5633" max="5633" width="6.625" style="23" customWidth="1"/>
+    <col min="5634" max="5636" width="7.625" style="23" customWidth="1"/>
     <col min="5637" max="5880" width="9" style="23"/>
-    <col min="5881" max="5881" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5882" max="5884" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5885" max="5885" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5886" max="5888" width="7.59765625" style="23" customWidth="1"/>
-    <col min="5889" max="5889" width="6.59765625" style="23" customWidth="1"/>
-    <col min="5890" max="5892" width="7.59765625" style="23" customWidth="1"/>
+    <col min="5881" max="5881" width="6.625" style="23" customWidth="1"/>
+    <col min="5882" max="5884" width="7.625" style="23" customWidth="1"/>
+    <col min="5885" max="5885" width="6.625" style="23" customWidth="1"/>
+    <col min="5886" max="5888" width="7.625" style="23" customWidth="1"/>
+    <col min="5889" max="5889" width="6.625" style="23" customWidth="1"/>
+    <col min="5890" max="5892" width="7.625" style="23" customWidth="1"/>
     <col min="5893" max="6136" width="9" style="23"/>
-    <col min="6137" max="6137" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6138" max="6140" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6141" max="6141" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6142" max="6144" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6145" max="6145" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6146" max="6148" width="7.59765625" style="23" customWidth="1"/>
+    <col min="6137" max="6137" width="6.625" style="23" customWidth="1"/>
+    <col min="6138" max="6140" width="7.625" style="23" customWidth="1"/>
+    <col min="6141" max="6141" width="6.625" style="23" customWidth="1"/>
+    <col min="6142" max="6144" width="7.625" style="23" customWidth="1"/>
+    <col min="6145" max="6145" width="6.625" style="23" customWidth="1"/>
+    <col min="6146" max="6148" width="7.625" style="23" customWidth="1"/>
     <col min="6149" max="6392" width="9" style="23"/>
-    <col min="6393" max="6393" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6394" max="6396" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6397" max="6397" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6398" max="6400" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6401" max="6401" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6402" max="6404" width="7.59765625" style="23" customWidth="1"/>
+    <col min="6393" max="6393" width="6.625" style="23" customWidth="1"/>
+    <col min="6394" max="6396" width="7.625" style="23" customWidth="1"/>
+    <col min="6397" max="6397" width="6.625" style="23" customWidth="1"/>
+    <col min="6398" max="6400" width="7.625" style="23" customWidth="1"/>
+    <col min="6401" max="6401" width="6.625" style="23" customWidth="1"/>
+    <col min="6402" max="6404" width="7.625" style="23" customWidth="1"/>
     <col min="6405" max="6648" width="9" style="23"/>
-    <col min="6649" max="6649" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6650" max="6652" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6653" max="6653" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6654" max="6656" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6657" max="6657" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6658" max="6660" width="7.59765625" style="23" customWidth="1"/>
+    <col min="6649" max="6649" width="6.625" style="23" customWidth="1"/>
+    <col min="6650" max="6652" width="7.625" style="23" customWidth="1"/>
+    <col min="6653" max="6653" width="6.625" style="23" customWidth="1"/>
+    <col min="6654" max="6656" width="7.625" style="23" customWidth="1"/>
+    <col min="6657" max="6657" width="6.625" style="23" customWidth="1"/>
+    <col min="6658" max="6660" width="7.625" style="23" customWidth="1"/>
     <col min="6661" max="6904" width="9" style="23"/>
-    <col min="6905" max="6905" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6906" max="6908" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6909" max="6909" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6910" max="6912" width="7.59765625" style="23" customWidth="1"/>
-    <col min="6913" max="6913" width="6.59765625" style="23" customWidth="1"/>
-    <col min="6914" max="6916" width="7.59765625" style="23" customWidth="1"/>
+    <col min="6905" max="6905" width="6.625" style="23" customWidth="1"/>
+    <col min="6906" max="6908" width="7.625" style="23" customWidth="1"/>
+    <col min="6909" max="6909" width="6.625" style="23" customWidth="1"/>
+    <col min="6910" max="6912" width="7.625" style="23" customWidth="1"/>
+    <col min="6913" max="6913" width="6.625" style="23" customWidth="1"/>
+    <col min="6914" max="6916" width="7.625" style="23" customWidth="1"/>
     <col min="6917" max="7160" width="9" style="23"/>
-    <col min="7161" max="7161" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7162" max="7164" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7165" max="7165" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7166" max="7168" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7169" max="7169" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7170" max="7172" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7161" max="7161" width="6.625" style="23" customWidth="1"/>
+    <col min="7162" max="7164" width="7.625" style="23" customWidth="1"/>
+    <col min="7165" max="7165" width="6.625" style="23" customWidth="1"/>
+    <col min="7166" max="7168" width="7.625" style="23" customWidth="1"/>
+    <col min="7169" max="7169" width="6.625" style="23" customWidth="1"/>
+    <col min="7170" max="7172" width="7.625" style="23" customWidth="1"/>
     <col min="7173" max="7416" width="9" style="23"/>
-    <col min="7417" max="7417" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7418" max="7420" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7421" max="7421" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7422" max="7424" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7425" max="7425" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7426" max="7428" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7417" max="7417" width="6.625" style="23" customWidth="1"/>
+    <col min="7418" max="7420" width="7.625" style="23" customWidth="1"/>
+    <col min="7421" max="7421" width="6.625" style="23" customWidth="1"/>
+    <col min="7422" max="7424" width="7.625" style="23" customWidth="1"/>
+    <col min="7425" max="7425" width="6.625" style="23" customWidth="1"/>
+    <col min="7426" max="7428" width="7.625" style="23" customWidth="1"/>
     <col min="7429" max="7672" width="9" style="23"/>
-    <col min="7673" max="7673" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7674" max="7676" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7677" max="7677" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7678" max="7680" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7681" max="7681" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7682" max="7684" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7673" max="7673" width="6.625" style="23" customWidth="1"/>
+    <col min="7674" max="7676" width="7.625" style="23" customWidth="1"/>
+    <col min="7677" max="7677" width="6.625" style="23" customWidth="1"/>
+    <col min="7678" max="7680" width="7.625" style="23" customWidth="1"/>
+    <col min="7681" max="7681" width="6.625" style="23" customWidth="1"/>
+    <col min="7682" max="7684" width="7.625" style="23" customWidth="1"/>
     <col min="7685" max="7928" width="9" style="23"/>
-    <col min="7929" max="7929" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7930" max="7932" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7933" max="7933" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7934" max="7936" width="7.59765625" style="23" customWidth="1"/>
-    <col min="7937" max="7937" width="6.59765625" style="23" customWidth="1"/>
-    <col min="7938" max="7940" width="7.59765625" style="23" customWidth="1"/>
+    <col min="7929" max="7929" width="6.625" style="23" customWidth="1"/>
+    <col min="7930" max="7932" width="7.625" style="23" customWidth="1"/>
+    <col min="7933" max="7933" width="6.625" style="23" customWidth="1"/>
+    <col min="7934" max="7936" width="7.625" style="23" customWidth="1"/>
+    <col min="7937" max="7937" width="6.625" style="23" customWidth="1"/>
+    <col min="7938" max="7940" width="7.625" style="23" customWidth="1"/>
     <col min="7941" max="8184" width="9" style="23"/>
-    <col min="8185" max="8185" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8186" max="8188" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8189" max="8189" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8190" max="8192" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8193" max="8193" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8194" max="8196" width="7.59765625" style="23" customWidth="1"/>
+    <col min="8185" max="8185" width="6.625" style="23" customWidth="1"/>
+    <col min="8186" max="8188" width="7.625" style="23" customWidth="1"/>
+    <col min="8189" max="8189" width="6.625" style="23" customWidth="1"/>
+    <col min="8190" max="8192" width="7.625" style="23" customWidth="1"/>
+    <col min="8193" max="8193" width="6.625" style="23" customWidth="1"/>
+    <col min="8194" max="8196" width="7.625" style="23" customWidth="1"/>
     <col min="8197" max="8440" width="9" style="23"/>
-    <col min="8441" max="8441" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8442" max="8444" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8445" max="8445" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8446" max="8448" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8449" max="8449" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8450" max="8452" width="7.59765625" style="23" customWidth="1"/>
+    <col min="8441" max="8441" width="6.625" style="23" customWidth="1"/>
+    <col min="8442" max="8444" width="7.625" style="23" customWidth="1"/>
+    <col min="8445" max="8445" width="6.625" style="23" customWidth="1"/>
+    <col min="8446" max="8448" width="7.625" style="23" customWidth="1"/>
+    <col min="8449" max="8449" width="6.625" style="23" customWidth="1"/>
+    <col min="8450" max="8452" width="7.625" style="23" customWidth="1"/>
     <col min="8453" max="8696" width="9" style="23"/>
-    <col min="8697" max="8697" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8698" max="8700" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8701" max="8701" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8702" max="8704" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8705" max="8705" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8706" max="8708" width="7.59765625" style="23" customWidth="1"/>
+    <col min="8697" max="8697" width="6.625" style="23" customWidth="1"/>
+    <col min="8698" max="8700" width="7.625" style="23" customWidth="1"/>
+    <col min="8701" max="8701" width="6.625" style="23" customWidth="1"/>
+    <col min="8702" max="8704" width="7.625" style="23" customWidth="1"/>
+    <col min="8705" max="8705" width="6.625" style="23" customWidth="1"/>
+    <col min="8706" max="8708" width="7.625" style="23" customWidth="1"/>
     <col min="8709" max="8952" width="9" style="23"/>
-    <col min="8953" max="8953" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8954" max="8956" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8957" max="8957" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8958" max="8960" width="7.59765625" style="23" customWidth="1"/>
-    <col min="8961" max="8961" width="6.59765625" style="23" customWidth="1"/>
-    <col min="8962" max="8964" width="7.59765625" style="23" customWidth="1"/>
+    <col min="8953" max="8953" width="6.625" style="23" customWidth="1"/>
+    <col min="8954" max="8956" width="7.625" style="23" customWidth="1"/>
+    <col min="8957" max="8957" width="6.625" style="23" customWidth="1"/>
+    <col min="8958" max="8960" width="7.625" style="23" customWidth="1"/>
+    <col min="8961" max="8961" width="6.625" style="23" customWidth="1"/>
+    <col min="8962" max="8964" width="7.625" style="23" customWidth="1"/>
     <col min="8965" max="9208" width="9" style="23"/>
-    <col min="9209" max="9209" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9210" max="9212" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9213" max="9213" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9214" max="9216" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9217" max="9217" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9218" max="9220" width="7.59765625" style="23" customWidth="1"/>
+    <col min="9209" max="9209" width="6.625" style="23" customWidth="1"/>
+    <col min="9210" max="9212" width="7.625" style="23" customWidth="1"/>
+    <col min="9213" max="9213" width="6.625" style="23" customWidth="1"/>
+    <col min="9214" max="9216" width="7.625" style="23" customWidth="1"/>
+    <col min="9217" max="9217" width="6.625" style="23" customWidth="1"/>
+    <col min="9218" max="9220" width="7.625" style="23" customWidth="1"/>
     <col min="9221" max="9464" width="9" style="23"/>
-    <col min="9465" max="9465" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9466" max="9468" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9469" max="9469" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9470" max="9472" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9473" max="9473" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9474" max="9476" width="7.59765625" style="23" customWidth="1"/>
+    <col min="9465" max="9465" width="6.625" style="23" customWidth="1"/>
+    <col min="9466" max="9468" width="7.625" style="23" customWidth="1"/>
+    <col min="9469" max="9469" width="6.625" style="23" customWidth="1"/>
+    <col min="9470" max="9472" width="7.625" style="23" customWidth="1"/>
+    <col min="9473" max="9473" width="6.625" style="23" customWidth="1"/>
+    <col min="9474" max="9476" width="7.625" style="23" customWidth="1"/>
     <col min="9477" max="9720" width="9" style="23"/>
-    <col min="9721" max="9721" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9722" max="9724" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9725" max="9725" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9726" max="9728" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9729" max="9729" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9730" max="9732" width="7.59765625" style="23" customWidth="1"/>
+    <col min="9721" max="9721" width="6.625" style="23" customWidth="1"/>
+    <col min="9722" max="9724" width="7.625" style="23" customWidth="1"/>
+    <col min="9725" max="9725" width="6.625" style="23" customWidth="1"/>
+    <col min="9726" max="9728" width="7.625" style="23" customWidth="1"/>
+    <col min="9729" max="9729" width="6.625" style="23" customWidth="1"/>
+    <col min="9730" max="9732" width="7.625" style="23" customWidth="1"/>
     <col min="9733" max="9976" width="9" style="23"/>
-    <col min="9977" max="9977" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9978" max="9980" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9981" max="9981" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9982" max="9984" width="7.59765625" style="23" customWidth="1"/>
-    <col min="9985" max="9985" width="6.59765625" style="23" customWidth="1"/>
-    <col min="9986" max="9988" width="7.59765625" style="23" customWidth="1"/>
+    <col min="9977" max="9977" width="6.625" style="23" customWidth="1"/>
+    <col min="9978" max="9980" width="7.625" style="23" customWidth="1"/>
+    <col min="9981" max="9981" width="6.625" style="23" customWidth="1"/>
+    <col min="9982" max="9984" width="7.625" style="23" customWidth="1"/>
+    <col min="9985" max="9985" width="6.625" style="23" customWidth="1"/>
+    <col min="9986" max="9988" width="7.625" style="23" customWidth="1"/>
     <col min="9989" max="10232" width="9" style="23"/>
-    <col min="10233" max="10233" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10234" max="10236" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10237" max="10237" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10238" max="10240" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10241" max="10241" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10242" max="10244" width="7.59765625" style="23" customWidth="1"/>
+    <col min="10233" max="10233" width="6.625" style="23" customWidth="1"/>
+    <col min="10234" max="10236" width="7.625" style="23" customWidth="1"/>
+    <col min="10237" max="10237" width="6.625" style="23" customWidth="1"/>
+    <col min="10238" max="10240" width="7.625" style="23" customWidth="1"/>
+    <col min="10241" max="10241" width="6.625" style="23" customWidth="1"/>
+    <col min="10242" max="10244" width="7.625" style="23" customWidth="1"/>
     <col min="10245" max="10488" width="9" style="23"/>
-    <col min="10489" max="10489" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10490" max="10492" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10493" max="10493" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10494" max="10496" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10497" max="10497" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10498" max="10500" width="7.59765625" style="23" customWidth="1"/>
+    <col min="10489" max="10489" width="6.625" style="23" customWidth="1"/>
+    <col min="10490" max="10492" width="7.625" style="23" customWidth="1"/>
+    <col min="10493" max="10493" width="6.625" style="23" customWidth="1"/>
+    <col min="10494" max="10496" width="7.625" style="23" customWidth="1"/>
+    <col min="10497" max="10497" width="6.625" style="23" customWidth="1"/>
+    <col min="10498" max="10500" width="7.625" style="23" customWidth="1"/>
     <col min="10501" max="10744" width="9" style="23"/>
-    <col min="10745" max="10745" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10746" max="10748" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10749" max="10749" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10750" max="10752" width="7.59765625" style="23" customWidth="1"/>
-    <col min="10753" max="10753" width="6.59765625" style="23" customWidth="1"/>
-    <col min="10754" max="10756" width="7.59765625" style="23" customWidth="1"/>
+    <col min="10745" max="10745" width="6.625" style="23" customWidth="1"/>
+    <col min="10746" max="10748" width="7.625" style="23" customWidth="1"/>
+    <col min="10749" max="10749" width="6.625" style="23" customWidth="1"/>
+    <col min="10750" max="10752" width="7.625" style="23" customWidth="1"/>
+    <col min="10753" max="10753" width="6.625" style="23" customWidth="1"/>
+    <col min="10754" max="10756" width="7.625" style="23" customWidth="1"/>
     <col min="10757" max="11000" width="9" style="23"/>
-    <col min="11001" max="11001" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11002" max="11004" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11005" max="11005" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11006" max="11008" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11009" max="11009" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11010" max="11012" width="7.59765625" style="23" customWidth="1"/>
+    <col min="11001" max="11001" width="6.625" style="23" customWidth="1"/>
+    <col min="11002" max="11004" width="7.625" style="23" customWidth="1"/>
+    <col min="11005" max="11005" width="6.625" style="23" customWidth="1"/>
+    <col min="11006" max="11008" width="7.625" style="23" customWidth="1"/>
+    <col min="11009" max="11009" width="6.625" style="23" customWidth="1"/>
+    <col min="11010" max="11012" width="7.625" style="23" customWidth="1"/>
     <col min="11013" max="11256" width="9" style="23"/>
-    <col min="11257" max="11257" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11258" max="11260" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11261" max="11261" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11262" max="11264" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11265" max="11265" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11266" max="11268" width="7.59765625" style="23" customWidth="1"/>
+    <col min="11257" max="11257" width="6.625" style="23" customWidth="1"/>
+    <col min="11258" max="11260" width="7.625" style="23" customWidth="1"/>
+    <col min="11261" max="11261" width="6.625" style="23" customWidth="1"/>
+    <col min="11262" max="11264" width="7.625" style="23" customWidth="1"/>
+    <col min="11265" max="11265" width="6.625" style="23" customWidth="1"/>
+    <col min="11266" max="11268" width="7.625" style="23" customWidth="1"/>
     <col min="11269" max="11512" width="9" style="23"/>
-    <col min="11513" max="11513" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11514" max="11516" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11517" max="11517" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11518" max="11520" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11521" max="11521" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11522" max="11524" width="7.59765625" style="23" customWidth="1"/>
+    <col min="11513" max="11513" width="6.625" style="23" customWidth="1"/>
+    <col min="11514" max="11516" width="7.625" style="23" customWidth="1"/>
+    <col min="11517" max="11517" width="6.625" style="23" customWidth="1"/>
+    <col min="11518" max="11520" width="7.625" style="23" customWidth="1"/>
+    <col min="11521" max="11521" width="6.625" style="23" customWidth="1"/>
+    <col min="11522" max="11524" width="7.625" style="23" customWidth="1"/>
     <col min="11525" max="11768" width="9" style="23"/>
-    <col min="11769" max="11769" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11770" max="11772" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11773" max="11773" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11774" max="11776" width="7.59765625" style="23" customWidth="1"/>
-    <col min="11777" max="11777" width="6.59765625" style="23" customWidth="1"/>
-    <col min="11778" max="11780" width="7.59765625" style="23" customWidth="1"/>
+    <col min="11769" max="11769" width="6.625" style="23" customWidth="1"/>
+    <col min="11770" max="11772" width="7.625" style="23" customWidth="1"/>
+    <col min="11773" max="11773" width="6.625" style="23" customWidth="1"/>
+    <col min="11774" max="11776" width="7.625" style="23" customWidth="1"/>
+    <col min="11777" max="11777" width="6.625" style="23" customWidth="1"/>
+    <col min="11778" max="11780" width="7.625" style="23" customWidth="1"/>
     <col min="11781" max="12024" width="9" style="23"/>
-    <col min="12025" max="12025" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12026" max="12028" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12029" max="12029" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12030" max="12032" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12033" max="12033" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12034" max="12036" width="7.59765625" style="23" customWidth="1"/>
+    <col min="12025" max="12025" width="6.625" style="23" customWidth="1"/>
+    <col min="12026" max="12028" width="7.625" style="23" customWidth="1"/>
+    <col min="12029" max="12029" width="6.625" style="23" customWidth="1"/>
+    <col min="12030" max="12032" width="7.625" style="23" customWidth="1"/>
+    <col min="12033" max="12033" width="6.625" style="23" customWidth="1"/>
+    <col min="12034" max="12036" width="7.625" style="23" customWidth="1"/>
     <col min="12037" max="12280" width="9" style="23"/>
-    <col min="12281" max="12281" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12282" max="12284" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12285" max="12285" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12286" max="12288" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12289" max="12289" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12290" max="12292" width="7.59765625" style="23" customWidth="1"/>
+    <col min="12281" max="12281" width="6.625" style="23" customWidth="1"/>
+    <col min="12282" max="12284" width="7.625" style="23" customWidth="1"/>
+    <col min="12285" max="12285" width="6.625" style="23" customWidth="1"/>
+    <col min="12286" max="12288" width="7.625" style="23" customWidth="1"/>
+    <col min="12289" max="12289" width="6.625" style="23" customWidth="1"/>
+    <col min="12290" max="12292" width="7.625" style="23" customWidth="1"/>
     <col min="12293" max="12536" width="9" style="23"/>
-    <col min="12537" max="12537" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12538" max="12540" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12541" max="12541" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12542" max="12544" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12545" max="12545" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12546" max="12548" width="7.59765625" style="23" customWidth="1"/>
+    <col min="12537" max="12537" width="6.625" style="23" customWidth="1"/>
+    <col min="12538" max="12540" width="7.625" style="23" customWidth="1"/>
+    <col min="12541" max="12541" width="6.625" style="23" customWidth="1"/>
+    <col min="12542" max="12544" width="7.625" style="23" customWidth="1"/>
+    <col min="12545" max="12545" width="6.625" style="23" customWidth="1"/>
+    <col min="12546" max="12548" width="7.625" style="23" customWidth="1"/>
     <col min="12549" max="12792" width="9" style="23"/>
-    <col min="12793" max="12793" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12794" max="12796" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12797" max="12797" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12798" max="12800" width="7.59765625" style="23" customWidth="1"/>
-    <col min="12801" max="12801" width="6.59765625" style="23" customWidth="1"/>
-    <col min="12802" max="12804" width="7.59765625" style="23" customWidth="1"/>
+    <col min="12793" max="12793" width="6.625" style="23" customWidth="1"/>
+    <col min="12794" max="12796" width="7.625" style="23" customWidth="1"/>
+    <col min="12797" max="12797" width="6.625" style="23" customWidth="1"/>
+    <col min="12798" max="12800" width="7.625" style="23" customWidth="1"/>
+    <col min="12801" max="12801" width="6.625" style="23" customWidth="1"/>
+    <col min="12802" max="12804" width="7.625" style="23" customWidth="1"/>
     <col min="12805" max="13048" width="9" style="23"/>
-    <col min="13049" max="13049" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13050" max="13052" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13053" max="13053" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13054" max="13056" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13057" max="13057" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13058" max="13060" width="7.59765625" style="23" customWidth="1"/>
+    <col min="13049" max="13049" width="6.625" style="23" customWidth="1"/>
+    <col min="13050" max="13052" width="7.625" style="23" customWidth="1"/>
+    <col min="13053" max="13053" width="6.625" style="23" customWidth="1"/>
+    <col min="13054" max="13056" width="7.625" style="23" customWidth="1"/>
+    <col min="13057" max="13057" width="6.625" style="23" customWidth="1"/>
+    <col min="13058" max="13060" width="7.625" style="23" customWidth="1"/>
     <col min="13061" max="13304" width="9" style="23"/>
-    <col min="13305" max="13305" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13306" max="13308" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13309" max="13309" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13310" max="13312" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13313" max="13313" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13314" max="13316" width="7.59765625" style="23" customWidth="1"/>
+    <col min="13305" max="13305" width="6.625" style="23" customWidth="1"/>
+    <col min="13306" max="13308" width="7.625" style="23" customWidth="1"/>
+    <col min="13309" max="13309" width="6.625" style="23" customWidth="1"/>
+    <col min="13310" max="13312" width="7.625" style="23" customWidth="1"/>
+    <col min="13313" max="13313" width="6.625" style="23" customWidth="1"/>
+    <col min="13314" max="13316" width="7.625" style="23" customWidth="1"/>
     <col min="13317" max="13560" width="9" style="23"/>
-    <col min="13561" max="13561" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13562" max="13564" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13565" max="13565" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13566" max="13568" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13569" max="13569" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13570" max="13572" width="7.59765625" style="23" customWidth="1"/>
+    <col min="13561" max="13561" width="6.625" style="23" customWidth="1"/>
+    <col min="13562" max="13564" width="7.625" style="23" customWidth="1"/>
+    <col min="13565" max="13565" width="6.625" style="23" customWidth="1"/>
+    <col min="13566" max="13568" width="7.625" style="23" customWidth="1"/>
+    <col min="13569" max="13569" width="6.625" style="23" customWidth="1"/>
+    <col min="13570" max="13572" width="7.625" style="23" customWidth="1"/>
     <col min="13573" max="13816" width="9" style="23"/>
-    <col min="13817" max="13817" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13818" max="13820" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13821" max="13821" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13822" max="13824" width="7.59765625" style="23" customWidth="1"/>
-    <col min="13825" max="13825" width="6.59765625" style="23" customWidth="1"/>
-    <col min="13826" max="13828" width="7.59765625" style="23" customWidth="1"/>
+    <col min="13817" max="13817" width="6.625" style="23" customWidth="1"/>
+    <col min="13818" max="13820" width="7.625" style="23" customWidth="1"/>
+    <col min="13821" max="13821" width="6.625" style="23" customWidth="1"/>
+    <col min="13822" max="13824" width="7.625" style="23" customWidth="1"/>
+    <col min="13825" max="13825" width="6.625" style="23" customWidth="1"/>
+    <col min="13826" max="13828" width="7.625" style="23" customWidth="1"/>
     <col min="13829" max="14072" width="9" style="23"/>
-    <col min="14073" max="14073" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14074" max="14076" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14077" max="14077" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14078" max="14080" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14081" max="14081" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14082" max="14084" width="7.59765625" style="23" customWidth="1"/>
+    <col min="14073" max="14073" width="6.625" style="23" customWidth="1"/>
+    <col min="14074" max="14076" width="7.625" style="23" customWidth="1"/>
+    <col min="14077" max="14077" width="6.625" style="23" customWidth="1"/>
+    <col min="14078" max="14080" width="7.625" style="23" customWidth="1"/>
+    <col min="14081" max="14081" width="6.625" style="23" customWidth="1"/>
+    <col min="14082" max="14084" width="7.625" style="23" customWidth="1"/>
     <col min="14085" max="14328" width="9" style="23"/>
-    <col min="14329" max="14329" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14330" max="14332" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14333" max="14333" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14334" max="14336" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14337" max="14337" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14338" max="14340" width="7.59765625" style="23" customWidth="1"/>
+    <col min="14329" max="14329" width="6.625" style="23" customWidth="1"/>
+    <col min="14330" max="14332" width="7.625" style="23" customWidth="1"/>
+    <col min="14333" max="14333" width="6.625" style="23" customWidth="1"/>
+    <col min="14334" max="14336" width="7.625" style="23" customWidth="1"/>
+    <col min="14337" max="14337" width="6.625" style="23" customWidth="1"/>
+    <col min="14338" max="14340" width="7.625" style="23" customWidth="1"/>
     <col min="14341" max="14584" width="9" style="23"/>
-    <col min="14585" max="14585" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14586" max="14588" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14589" max="14589" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14590" max="14592" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14593" max="14593" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14594" max="14596" width="7.59765625" style="23" customWidth="1"/>
+    <col min="14585" max="14585" width="6.625" style="23" customWidth="1"/>
+    <col min="14586" max="14588" width="7.625" style="23" customWidth="1"/>
+    <col min="14589" max="14589" width="6.625" style="23" customWidth="1"/>
+    <col min="14590" max="14592" width="7.625" style="23" customWidth="1"/>
+    <col min="14593" max="14593" width="6.625" style="23" customWidth="1"/>
+    <col min="14594" max="14596" width="7.625" style="23" customWidth="1"/>
     <col min="14597" max="14840" width="9" style="23"/>
-    <col min="14841" max="14841" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14842" max="14844" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14845" max="14845" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14846" max="14848" width="7.59765625" style="23" customWidth="1"/>
-    <col min="14849" max="14849" width="6.59765625" style="23" customWidth="1"/>
-    <col min="14850" max="14852" width="7.59765625" style="23" customWidth="1"/>
+    <col min="14841" max="14841" width="6.625" style="23" customWidth="1"/>
+    <col min="14842" max="14844" width="7.625" style="23" customWidth="1"/>
+    <col min="14845" max="14845" width="6.625" style="23" customWidth="1"/>
+    <col min="14846" max="14848" width="7.625" style="23" customWidth="1"/>
+    <col min="14849" max="14849" width="6.625" style="23" customWidth="1"/>
+    <col min="14850" max="14852" width="7.625" style="23" customWidth="1"/>
     <col min="14853" max="15096" width="9" style="23"/>
-    <col min="15097" max="15097" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15098" max="15100" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15101" max="15101" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15102" max="15104" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15105" max="15105" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15106" max="15108" width="7.59765625" style="23" customWidth="1"/>
+    <col min="15097" max="15097" width="6.625" style="23" customWidth="1"/>
+    <col min="15098" max="15100" width="7.625" style="23" customWidth="1"/>
+    <col min="15101" max="15101" width="6.625" style="23" customWidth="1"/>
+    <col min="15102" max="15104" width="7.625" style="23" customWidth="1"/>
+    <col min="15105" max="15105" width="6.625" style="23" customWidth="1"/>
+    <col min="15106" max="15108" width="7.625" style="23" customWidth="1"/>
     <col min="15109" max="15352" width="9" style="23"/>
-    <col min="15353" max="15353" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15354" max="15356" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15357" max="15357" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15358" max="15360" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15361" max="15361" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15362" max="15364" width="7.59765625" style="23" customWidth="1"/>
+    <col min="15353" max="15353" width="6.625" style="23" customWidth="1"/>
+    <col min="15354" max="15356" width="7.625" style="23" customWidth="1"/>
+    <col min="15357" max="15357" width="6.625" style="23" customWidth="1"/>
+    <col min="15358" max="15360" width="7.625" style="23" customWidth="1"/>
+    <col min="15361" max="15361" width="6.625" style="23" customWidth="1"/>
+    <col min="15362" max="15364" width="7.625" style="23" customWidth="1"/>
     <col min="15365" max="15608" width="9" style="23"/>
-    <col min="15609" max="15609" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15610" max="15612" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15613" max="15613" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15614" max="15616" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15617" max="15617" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15618" max="15620" width="7.59765625" style="23" customWidth="1"/>
+    <col min="15609" max="15609" width="6.625" style="23" customWidth="1"/>
+    <col min="15610" max="15612" width="7.625" style="23" customWidth="1"/>
+    <col min="15613" max="15613" width="6.625" style="23" customWidth="1"/>
+    <col min="15614" max="15616" width="7.625" style="23" customWidth="1"/>
+    <col min="15617" max="15617" width="6.625" style="23" customWidth="1"/>
+    <col min="15618" max="15620" width="7.625" style="23" customWidth="1"/>
     <col min="15621" max="15864" width="9" style="23"/>
-    <col min="15865" max="15865" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15866" max="15868" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15869" max="15869" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15870" max="15872" width="7.59765625" style="23" customWidth="1"/>
-    <col min="15873" max="15873" width="6.59765625" style="23" customWidth="1"/>
-    <col min="15874" max="15876" width="7.59765625" style="23" customWidth="1"/>
+    <col min="15865" max="15865" width="6.625" style="23" customWidth="1"/>
+    <col min="15866" max="15868" width="7.625" style="23" customWidth="1"/>
+    <col min="15869" max="15869" width="6.625" style="23" customWidth="1"/>
+    <col min="15870" max="15872" width="7.625" style="23" customWidth="1"/>
+    <col min="15873" max="15873" width="6.625" style="23" customWidth="1"/>
+    <col min="15874" max="15876" width="7.625" style="23" customWidth="1"/>
     <col min="15877" max="16120" width="9" style="23"/>
-    <col min="16121" max="16121" width="6.59765625" style="23" customWidth="1"/>
-    <col min="16122" max="16124" width="7.59765625" style="23" customWidth="1"/>
-    <col min="16125" max="16125" width="6.59765625" style="23" customWidth="1"/>
-    <col min="16126" max="16128" width="7.59765625" style="23" customWidth="1"/>
-    <col min="16129" max="16129" width="6.59765625" style="23" customWidth="1"/>
-    <col min="16130" max="16132" width="7.59765625" style="23" customWidth="1"/>
+    <col min="16121" max="16121" width="6.625" style="23" customWidth="1"/>
+    <col min="16122" max="16124" width="7.625" style="23" customWidth="1"/>
+    <col min="16125" max="16125" width="6.625" style="23" customWidth="1"/>
+    <col min="16126" max="16128" width="7.625" style="23" customWidth="1"/>
+    <col min="16129" max="16129" width="6.625" style="23" customWidth="1"/>
+    <col min="16130" max="16132" width="7.625" style="23" customWidth="1"/>
     <col min="16133" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>2</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>2.1760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>4</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>5</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>6</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
         <v>7</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>8</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <v>9</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>10</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
         <v>11</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
         <v>12</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
         <v>13</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
         <v>14</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
         <v>15</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28">
         <v>16</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26">
         <v>17</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28">
         <v>18</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26">
         <v>19</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26">
         <v>21</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
         <v>22</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26">
         <v>23</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28">
         <v>24</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26">
         <v>25</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="28">
         <v>26</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26">
         <v>27</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="28">
         <v>28</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26">
         <v>29</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28">
         <v>30</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26">
         <v>31</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="28">
         <v>32</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32">
         <v>33</v>
       </c>
@@ -2346,13 +2346,13 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
-    <row r="38" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="28">
         <v>34</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26">
         <v>35</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28">
         <v>36</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26">
         <v>37</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28">
         <v>38</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26">
         <v>39</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="28">
         <v>40</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="26">
         <v>41</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="28">
         <v>42</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="26">
         <v>43</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="28">
         <v>44</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="26">
         <v>45</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="28">
         <v>46</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="26">
         <v>47</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="28">
         <v>48</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="26">
         <v>49</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="28">
         <v>50</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="26">
         <v>51</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="28">
         <v>52</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="26">
         <v>53</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="28">
         <v>54</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="26">
         <v>55</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="28">
         <v>56</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="26">
         <v>57</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="28">
         <v>58</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="26">
         <v>59</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="28">
         <v>60</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="26">
         <v>61</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="28">
         <v>62</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="26">
         <v>63</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="28">
         <v>64</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="26">
         <v>65</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="28">
         <v>66</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="32">
         <v>67</v>
       </c>
@@ -2828,13 +2828,13 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="33"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="28">
         <v>68</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="26">
         <v>69</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="28">
         <v>70</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="26">
         <v>71</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="28">
         <v>72</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="26">
         <v>73</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="28">
         <v>74</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="26">
         <v>75</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="28">
         <v>76</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="26">
         <v>77</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="28">
         <v>78</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="26">
         <v>79</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="28">
         <v>80</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="26">
         <v>81</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="28">
         <v>82</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="26">
         <v>83</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="28">
         <v>84</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="26">
         <v>85</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="28">
         <v>86</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="26">
         <v>87</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="28">
         <v>88</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="26">
         <v>89</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="28">
         <v>90</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="26">
         <v>91</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="28">
         <v>92</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="26">
         <v>93</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="28">
         <v>94</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="26">
         <v>95</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="28">
         <v>96</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="26">
         <v>97</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="28">
         <v>98</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="26">
         <v>99</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="28">
         <v>100</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="32" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>1.2815000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="33"/>
       <c r="B107" s="27" t="s">
         <v>4</v>
@@ -3355,12 +3355,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
         <v>33</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="O1" s="53"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59"/>
       <c r="B2" s="56" t="s">
         <v>38</v>
@@ -3422,7 +3422,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -3473,28 +3473,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -3654,7 +3654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -3671,7 +3671,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -3688,7 +3688,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -3705,7 +3705,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -3722,7 +3722,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -3739,7 +3739,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -3756,7 +3756,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -3773,7 +3773,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3790,7 +3790,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3807,7 +3807,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -3824,7 +3824,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3841,7 +3841,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3858,7 +3858,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -3875,7 +3875,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -3892,7 +3892,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -3911,7 +3911,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3930,7 +3930,7 @@
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3949,7 +3949,7 @@
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4000,8 +4000,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4010,28 +4009,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +4049,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -4096,7 +4095,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -4160,7 +4159,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -4193,7 +4192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -4210,7 +4209,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -4227,7 +4226,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -4244,7 +4243,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -4261,7 +4260,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -4278,7 +4277,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -4295,7 +4294,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -4312,7 +4311,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4329,7 +4328,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4346,7 +4345,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -4363,7 +4362,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4380,7 +4379,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4397,7 +4396,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -4414,7 +4413,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -4431,7 +4430,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -4449,7 +4448,7 @@
       <c r="O21" s="15"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4467,7 +4466,7 @@
       <c r="O22" s="15"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4485,7 +4484,7 @@
       <c r="O23" s="15"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4535,8 +4534,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4545,28 +4543,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4583,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -4606,7 +4604,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -4631,7 +4629,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -4656,7 +4654,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -4695,7 +4693,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -4728,7 +4726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -4745,7 +4743,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -4762,7 +4760,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -4779,7 +4777,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -4796,7 +4794,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -4813,7 +4811,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -4830,7 +4828,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -4847,7 +4845,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4864,7 +4862,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -4881,7 +4879,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -4898,7 +4896,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -4915,7 +4913,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -4932,7 +4930,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -4949,7 +4947,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -4966,7 +4964,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -4984,7 +4982,7 @@
       <c r="O21" s="15"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5002,7 +5000,7 @@
       <c r="O22" s="15"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5020,7 +5018,7 @@
       <c r="O23" s="15"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -5070,8 +5068,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5080,28 +5077,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -5120,7 +5117,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -5141,7 +5138,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -5166,7 +5163,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -5191,7 +5188,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -5230,7 +5227,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -5263,7 +5260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -5280,7 +5277,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -5297,7 +5294,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -5314,7 +5311,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -5331,7 +5328,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -5348,7 +5345,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -5365,7 +5362,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -5382,7 +5379,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5399,7 +5396,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5416,7 +5413,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -5433,7 +5430,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5450,7 +5447,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5467,7 +5464,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -5484,7 +5481,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5501,7 +5498,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -5519,7 +5516,7 @@
       <c r="O21" s="15"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5537,7 +5534,7 @@
       <c r="O22" s="15"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5555,7 +5552,7 @@
       <c r="O23" s="15"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -5605,8 +5602,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5615,28 +5611,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -5655,7 +5651,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -5676,7 +5672,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -5701,7 +5697,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -5726,7 +5722,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -5798,7 +5794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -5815,7 +5811,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -5832,7 +5828,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -5849,7 +5845,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -5866,7 +5862,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -5883,7 +5879,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -5900,7 +5896,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -5917,7 +5913,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5934,7 +5930,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5951,7 +5947,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -5968,7 +5964,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5985,7 +5981,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6002,7 +5998,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -6019,7 +6015,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -6036,7 +6032,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -6054,7 +6050,7 @@
       <c r="O21" s="15"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6072,7 +6068,7 @@
       <c r="O22" s="15"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6090,7 +6086,7 @@
       <c r="O23" s="15"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6140,8 +6136,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6150,28 +6145,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I24"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6185,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -6211,7 +6206,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -6236,7 +6231,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -6261,7 +6256,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -6300,7 +6295,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -6333,7 +6328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -6350,7 +6345,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -6367,7 +6362,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -6384,7 +6379,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -6401,7 +6396,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -6418,7 +6413,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -6435,7 +6430,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -6452,7 +6447,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -6469,7 +6464,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -6486,7 +6481,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -6503,7 +6498,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -6520,7 +6515,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -6537,7 +6532,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -6554,7 +6549,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -6571,7 +6566,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -6589,7 +6584,7 @@
       <c r="O21" s="15"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6607,7 +6602,7 @@
       <c r="O22" s="15"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6625,7 +6620,7 @@
       <c r="O23" s="15"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6675,8 +6670,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6685,28 +6679,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I24"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="18" width="9" style="21"/>
     <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -6725,7 +6719,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -6746,7 +6740,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -6771,7 +6765,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -6796,7 +6790,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +6829,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -6868,7 +6862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -6885,7 +6879,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -6902,7 +6896,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -6919,7 +6913,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -6936,7 +6930,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -6953,7 +6947,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -6970,7 +6964,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -6987,7 +6981,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -7004,7 +6998,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -7021,7 +7015,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -7038,7 +7032,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -7055,7 +7049,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -7072,7 +7066,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -7089,7 +7083,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="15"/>
@@ -7106,7 +7100,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="15"/>
@@ -7125,7 +7119,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7144,7 +7138,7 @@
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -7163,7 +7157,7 @@
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -7214,8 +7208,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7228,22 +7221,22 @@
       <selection activeCell="B7" sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="9.1328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="9" customWidth="1"/>
     <col min="8" max="9" width="8" style="10" customWidth="1"/>
     <col min="10" max="11" width="8" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.1328125" style="7" customWidth="1"/>
-    <col min="14" max="15" width="5.86328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="7" customWidth="1"/>
+    <col min="14" max="15" width="5.875" style="7" customWidth="1"/>
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7255,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
@@ -7287,7 +7280,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
@@ -7312,7 +7305,7 @@
       <c r="N3" s="44"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>12</v>
       </c>
@@ -7337,7 +7330,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
@@ -7376,7 +7369,7 @@
       </c>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -7409,7 +7402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15"/>
@@ -7426,7 +7419,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
@@ -7443,7 +7436,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
@@ -7460,7 +7453,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
@@ -7477,7 +7470,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
@@ -7494,7 +7487,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -7511,7 +7504,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
@@ -7528,7 +7521,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -7545,7 +7538,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -7562,7 +7555,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
@@ -7579,7 +7572,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -7596,7 +7589,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -7613,7 +7606,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="15"/>
@@ -7630,7 +7623,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -7647,7 +7640,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -7664,7 +7657,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7681,7 +7674,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -7698,7 +7691,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
